--- a/mlb_pitchers_2021.xlsx
+++ b/mlb_pitchers_2021.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radcl\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5720E-6AB1-42D5-A095-B8465EA060F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A05EDE-A6D5-4E73-AB22-A336FFF7DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pitch_arsenals" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
